--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\Developpement\Programmes\Programmes\Python\travelling_salesman_problem_lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B85BD80-3065-4174-8853-7F76FA0583AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839AEBA7-BEC4-4B88-9A9A-84BAFE751683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="588" windowWidth="17496" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -356,15 +356,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:R18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.2">
+    <row r="4" spans="1:19" ht="13.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.2">
+    <row r="5" spans="1:19" ht="13.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -642,7 +642,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.2">
+    <row r="6" spans="1:19" ht="13.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13.2">
+    <row r="7" spans="1:19" ht="13.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.2">
+    <row r="8" spans="1:19" ht="13.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,8 +809,9 @@
       <c r="R8" s="5">
         <v>1114</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="13.2">
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -865,8 +866,9 @@
       <c r="R9" s="5">
         <v>1682</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="13.2">
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -921,8 +923,9 @@
       <c r="R10" s="5">
         <v>2623</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="13.2">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -977,8 +980,9 @@
       <c r="R11" s="5">
         <v>2110</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.2">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1037,9 @@
       <c r="R12" s="5">
         <v>1673</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="13.2">
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1089,8 +1094,9 @@
       <c r="R13" s="5">
         <v>2461</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="13.2">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13.2">
+    <row r="15" spans="1:19" ht="13.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="13.2">
+    <row r="16" spans="1:19" ht="13.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\Developpement\Programmes\Programmes\Python\travelling_salesman_problem_lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839AEBA7-BEC4-4B88-9A9A-84BAFE751683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62BC07-563E-4AC5-832C-6A336A35E00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="588" windowWidth="17496" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -356,15 +356,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.2">
+    <row r="4" spans="1:18" ht="13.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.2">
+    <row r="5" spans="1:18" ht="13.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -642,7 +642,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.2">
+    <row r="6" spans="1:18" ht="13.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.2">
+    <row r="7" spans="1:18" ht="13.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.2">
+    <row r="8" spans="1:18" ht="13.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,9 +809,8 @@
       <c r="R8" s="5">
         <v>1114</v>
       </c>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.2">
+    </row>
+    <row r="9" spans="1:18" ht="13.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -866,9 +865,8 @@
       <c r="R9" s="5">
         <v>1682</v>
       </c>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.2">
+    </row>
+    <row r="10" spans="1:18" ht="13.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -923,9 +921,8 @@
       <c r="R10" s="5">
         <v>2623</v>
       </c>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.2">
+    </row>
+    <row r="11" spans="1:18" ht="13.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -980,9 +977,8 @@
       <c r="R11" s="5">
         <v>2110</v>
       </c>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="13.2">
+    </row>
+    <row r="12" spans="1:18" ht="13.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1037,9 +1033,8 @@
       <c r="R12" s="5">
         <v>1673</v>
       </c>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.2">
+    </row>
+    <row r="13" spans="1:18" ht="13.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1094,9 +1089,8 @@
       <c r="R13" s="5">
         <v>2461</v>
       </c>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="13.2">
+    </row>
+    <row r="14" spans="1:18" ht="13.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.2">
+    <row r="15" spans="1:18" ht="13.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1202,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.2">
+    <row r="16" spans="1:18" ht="13.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
